--- a/dataset/excel data/320-306.xlsx
+++ b/dataset/excel data/320-306.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501D17E9-4E9D-438C-956A-D6A8F48282B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{448636C1-6D6B-47F9-9659-687E4DB44749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="320-306" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="108">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0566</t>
+    <t>0.0434</t>
   </si>
   <si>
     <t>1997</t>
@@ -280,73 +280,148 @@
     <t>HAL</t>
   </si>
   <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.0571</t>
+  </si>
+  <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
     <t>BED</t>
   </si>
   <si>
-    <t>0.0609</t>
-  </si>
-  <si>
-    <t>LIV</t>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>KIT</t>
   </si>
   <si>
     <t>GAR</t>
   </si>
   <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.9914</t>
-  </si>
-  <si>
-    <t>0.0634</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>CLO</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>0.0056</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.3951</t>
-  </si>
-  <si>
-    <t>KIT</t>
-  </si>
-  <si>
-    <t>0.0503</t>
-  </si>
-  <si>
-    <t>0.7893</t>
-  </si>
-  <si>
-    <t>0.4022</t>
-  </si>
-  <si>
-    <t>0.6835</t>
-  </si>
-  <si>
-    <t>0.0051</t>
-  </si>
-  <si>
-    <t>0.7031</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>0.0081</t>
+    <t>0.2088</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.0496</t>
+  </si>
+  <si>
+    <t>0.8589</t>
+  </si>
+  <si>
+    <t>0.4378</t>
+  </si>
+  <si>
+    <t>0.7097</t>
+  </si>
+  <si>
+    <t>0.0031</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.0044</t>
+  </si>
+  <si>
+    <t>320-306-2</t>
+  </si>
+  <si>
+    <t>0.7841</t>
+  </si>
+  <si>
+    <t>0.1686</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>0.8922</t>
+  </si>
+  <si>
+    <t>0.0387</t>
+  </si>
+  <si>
+    <t>0.0667</t>
+  </si>
+  <si>
+    <t>0.4975</t>
+  </si>
+  <si>
+    <t>0.0822</t>
+  </si>
+  <si>
+    <t>0.7176</t>
+  </si>
+  <si>
+    <t>0.1397</t>
+  </si>
+  <si>
+    <t>0.6565</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.0657</t>
+  </si>
+  <si>
+    <t>0.0271</t>
+  </si>
+  <si>
+    <t>0.2833</t>
+  </si>
+  <si>
+    <t>0.1064</t>
+  </si>
+  <si>
+    <t>0.3623</t>
+  </si>
+  <si>
+    <t>0.0072</t>
+  </si>
+  <si>
+    <t>0.2693</t>
+  </si>
+  <si>
+    <t>0.0194</t>
   </si>
 </sst>
 </file>
@@ -495,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,13 +580,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,13 +601,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,37 +616,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -901,30 +979,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -953,14 +1031,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1031,10 +1109,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1213,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.17849999999999999</v>
+        <v>0.1585</v>
       </c>
       <c r="I5" s="1">
-        <v>0.31709999999999999</v>
+        <v>0.2742</v>
       </c>
       <c r="J5" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
@@ -1299,19 +1377,19 @@
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.19209999999999999</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.31709999999999999</v>
+        <v>0.1593</v>
       </c>
       <c r="J6" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.4098</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>54</v>
@@ -1335,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1347,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -1374,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1388,22 +1466,22 @@
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.19209999999999999</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>0.31709999999999999</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>54</v>
@@ -1418,7 +1496,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>58</v>
@@ -1430,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1439,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="1">
         <v>1</v>
@@ -1460,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1480,22 +1558,22 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.35870000000000002</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>0.64390000000000003</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.90710000000000002</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>54</v>
@@ -1510,7 +1588,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1519,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1531,34 +1609,34 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1581,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
@@ -1602,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1629,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="1">
         <v>1</v>
@@ -1673,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
@@ -1694,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1721,16 +1799,16 @@
         <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AB10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1742,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1765,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -1786,7 +1864,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1813,28 +1891,28 @@
         <v>2</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1857,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -1878,7 +1956,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1905,28 +1983,28 @@
         <v>2</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB12" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1949,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -1970,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -1997,19 +2075,19 @@
         <v>2</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AC13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="1">
         <v>1</v>
@@ -2041,16 +2119,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2062,7 +2140,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2089,16 +2167,16 @@
         <v>2</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
@@ -2110,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2133,16 +2211,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2154,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2181,13 +2259,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="1">
         <v>7</v>
@@ -2225,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.1981</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2246,7 +2324,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2273,28 +2351,28 @@
         <v>2</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2308,25 +2386,25 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.1981</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2338,7 +2416,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2350,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2362,31 +2440,31 @@
         <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AB17" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
@@ -2400,25 +2478,25 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.1981</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>0.31990000000000002</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2430,7 +2508,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2442,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2454,31 +2532,31 @@
         <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AB18" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
@@ -2492,25 +2570,25 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>5.04E-2</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>0.1113</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.73750000000000004</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2522,7 +2600,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2531,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2543,25 +2621,25 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -2570,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2584,25 +2662,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.58330000000000004</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>0.67730000000000001</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2614,7 +2692,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2626,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2641,28 +2719,28 @@
         <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
@@ -2676,25 +2754,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.58330000000000004</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>0.67730000000000001</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2706,7 +2784,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2718,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2733,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AB21" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
@@ -2768,25 +2846,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.58330000000000004</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>0.67730000000000001</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2798,7 +2876,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2810,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2825,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AB22" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
@@ -2860,22 +2938,22 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.16139999999999999</v>
+        <v>0.35389999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>0.3115</v>
+        <v>0.59009999999999996</v>
       </c>
       <c r="J23" s="1">
-        <v>0.84379999999999999</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>54</v>
@@ -2890,7 +2968,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>58</v>
@@ -2911,34 +2989,34 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
@@ -2952,25 +3030,25 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.16139999999999999</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.3115</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.84379999999999999</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
@@ -2982,7 +3060,7 @@
         <v>56</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>58</v>
@@ -3003,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -3015,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="1">
         <v>1</v>
@@ -3044,25 +3122,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.16139999999999999</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>0.3115</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.84379999999999999</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3074,7 +3152,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3095,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3107,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AB25" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
@@ -3136,25 +3214,25 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3166,7 +3244,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3193,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AB26" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>1</v>
@@ -3228,25 +3306,25 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="I27" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3258,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3285,28 +3363,28 @@
         <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AB27" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC27" s="1">
         <v>1</v>
       </c>
       <c r="AD27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
@@ -3320,25 +3398,25 @@
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="I28" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3350,7 +3428,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3377,28 +3455,28 @@
         <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AC28" s="1">
         <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.3">
@@ -3412,25 +3490,25 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.17430000000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.28460000000000002</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0.9083</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>55</v>
@@ -3442,7 +3520,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>58</v>
@@ -3463,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>59</v>
@@ -3484,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="AD29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
@@ -3504,25 +3582,25 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.17430000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.28460000000000002</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0.9083</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
@@ -3534,7 +3612,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3555,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="1">
         <v>1</v>
@@ -3596,25 +3674,25 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.55940000000000001</v>
+        <v>0.58630000000000004</v>
       </c>
       <c r="I31" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
@@ -3626,7 +3704,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>58</v>
@@ -3653,16 +3731,16 @@
         <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC31" s="1">
         <v>1</v>
@@ -3688,25 +3766,25 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>6.7500000000000004E-2</v>
+        <v>0.58630000000000004</v>
       </c>
       <c r="I32" s="1">
-        <v>7.51E-2</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3718,7 +3796,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3727,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -3751,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AB32" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="1">
         <v>1</v>
@@ -3780,25 +3858,25 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1">
         <v>11</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>5.4699999999999999E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>6.2600000000000003E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3810,7 +3888,7 @@
         <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>58</v>
@@ -3843,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB33" s="1">
         <v>3</v>
@@ -3872,25 +3950,25 @@
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>4.53E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>0.1794</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="J34" s="1">
-        <v>0.41089999999999999</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>55</v>
@@ -3950,6 +4028,2214 @@
         <v>1</v>
       </c>
       <c r="AF34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.3921</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.3921</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.2198</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.1762</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.2198</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>5</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>5</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>5</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>2</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.2263</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.2077</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.2591</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.5181</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.1192</v>
+      </c>
+      <c r="I53" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>3</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <v>3</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>3</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>3</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="1">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.2802</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.3448</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="1">
         <v>0.25</v>
       </c>
     </row>
